--- a/Files/result.xlsx
+++ b/Files/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 128GB</t>
+          <t>S20FE Смартфон Samsung Galaxy S20 FE Resale</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>189496530</v>
+        <v>158616144</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>79990</v>
+        <v>33000</v>
       </c>
       <c r="G2" t="n">
-        <v>56152</v>
+        <v>29106</v>
       </c>
     </row>
     <row r="3">
@@ -496,23 +496,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro 128GB</t>
+          <t>Samsung Задняя крышка Samsung A107F (Galaxy A10S) Черная</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>177120757</v>
+        <v>87251353</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>189990</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="n">
-        <v>116273</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4">
@@ -521,73 +521,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apple iPhone 15 Pro 512GB</t>
+          <t>S20FE Смартфон Samsung Galaxy S20 FE Resale</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>177120753</v>
+        <v>158616146</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>229990</v>
+        <v>33000</v>
       </c>
       <c r="G4" t="n">
-        <v>149033</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Apple iPhone 15 Plus 512GB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>177120713</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>199990</v>
-      </c>
-      <c r="G5" t="n">
-        <v>138593</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Apple iPhone 15 Plus 512GB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>177120715</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>199990</v>
-      </c>
-      <c r="G6" t="n">
-        <v>138593</v>
+        <v>27621</v>
       </c>
     </row>
   </sheetData>
